--- a/6) Апрель/915/915 Разработка моб приложений_апрель.xlsx
+++ b/6) Апрель/915/915 Разработка моб приложений_апрель.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\6) Апрель\915\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB609CD6-8D00-463C-9EF8-E853300AB188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4233EB0F-D366-4D07-9531-EEE1768256E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="7695" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>ФИО</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>н</t>
+  </si>
+  <si>
+    <t>Практика 3.17</t>
+  </si>
+  <si>
+    <t>Практика 3.16</t>
+  </si>
+  <si>
+    <t>Лекция 3.12</t>
   </si>
 </sst>
 </file>
@@ -227,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -242,10 +251,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -529,7 +535,7 @@
   <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,28 +574,28 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="1">
         <v>45750</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="1">
         <v>45750</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="1">
         <v>45751</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="1">
         <v>45751</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="1">
         <v>45751</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="1">
         <v>45752</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="1">
         <v>45755</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="1">
         <v>45755</v>
       </c>
       <c r="J1" s="1">
@@ -621,384 +627,205 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="U2" s="8"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="8"/>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="U4" s="8"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="U5" s="8"/>
+      <c r="U5" s="6"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="U6" s="8"/>
+      <c r="U6" s="6"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="U7" s="8"/>
+      <c r="U7" s="6"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="U8" s="8"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U9" s="8"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="6"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U10" s="8"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" s="6"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="U11" s="8"/>
+      <c r="U11" s="6"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="U12" s="8"/>
+      <c r="U12" s="6"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="U13" s="8"/>
+      <c r="U13" s="6"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="U14" s="8"/>
+      <c r="U14" s="6"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U15" s="8"/>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="6"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U16" s="8"/>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" s="6"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="U17" s="8"/>
+      <c r="U17" s="6"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="U18" s="8"/>
+      <c r="U18" s="6"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="U19" s="8"/>
+      <c r="U19" s="6"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="U20" s="8"/>
+      <c r="U20" s="6"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U21" s="8"/>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U21" s="6"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U22" s="8"/>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" s="6"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U23" s="8"/>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" s="6"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="U24" s="8"/>
+      <c r="U24" s="6"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U25" s="8"/>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+      <c r="U25" s="6"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="U26" s="8"/>
+      <c r="U26" s="6"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1010,20 +837,50 @@
       <c r="E27" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" t="s">
         <v>30</v>
       </c>
       <c r="J27" t="s">
         <v>30</v>
       </c>
-      <c r="U27" s="8"/>
+      <c r="U27" s="6"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
